--- a/informe/tables/parameters_clustering_tree.xlsx
+++ b/informe/tables/parameters_clustering_tree.xlsx
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15.90428490638733</v>
+        <v>0.2575994968414307</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3639563463486843</v>
+        <v>0.04854064009571978</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01237215995788574</v>
+        <v>0.003802776336669922</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008794350111026156</v>
+        <v>0.001724856798095644</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -765,16 +765,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13.97591013908386</v>
+        <v>0.2683996677398682</v>
       </c>
       <c r="C3" t="n">
-        <v>2.111791944027482</v>
+        <v>0.03472466154848978</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00755472183227539</v>
+        <v>0.003001546859741211</v>
       </c>
       <c r="E3" t="n">
-        <v>0.009055397824932938</v>
+        <v>0.00228118977518769</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -850,16 +850,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.63265690803528</v>
+        <v>0.2192007064819336</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3708225093357308</v>
+        <v>0.06715903884797365</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001999855041503906</v>
+        <v>0.0007992267608642578</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0003999710083007812</v>
+        <v>0.0003996154109891182</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -935,16 +935,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.08821811676025</v>
+        <v>0.2716016292572022</v>
       </c>
       <c r="C5" t="n">
-        <v>1.537488016655105</v>
+        <v>0.04952888452865441</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0008662700653076172</v>
+        <v>0.001400136947631836</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000206269448261394</v>
+        <v>0.0004897658634851591</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1020,16 +1020,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.77830910682678</v>
+        <v>0.283601713180542</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8669872248568978</v>
+        <v>0.02924286107774281</v>
       </c>
       <c r="D6" t="n">
-        <v>0.000786733627319336</v>
+        <v>0.001599264144897461</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0003943740632864939</v>
+        <v>0.001743865953034495</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1105,16 +1105,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21.34734954833984</v>
+        <v>0.2909771919250488</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7443319884427456</v>
+        <v>0.04428359776076546</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0003285884857177734</v>
+        <v>0.001804447174072266</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0003885730290939957</v>
+        <v>0.001169918472128939</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1190,16 +1190,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.19110627174377</v>
+        <v>0.2698477268218994</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5380902782058837</v>
+        <v>0.03849550245453982</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00270085334777832</v>
+        <v>0.00059967041015625</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001565461803627938</v>
+        <v>0.000489631649065005</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1275,16 +1275,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13.80045328140259</v>
+        <v>0.2688910007476807</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1427054562451628</v>
+        <v>0.0612803856553665</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0005227088928222656</v>
+        <v>0.000597381591796875</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0004499004856027363</v>
+        <v>0.0004877671826978675</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1360,16 +1360,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.43011674880982</v>
+        <v>0.2428847312927246</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5859555607709636</v>
+        <v>0.07813351050501693</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001220798492431641</v>
+        <v>0.001415443420410156</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0003966549371841759</v>
+        <v>0.0007928432155901268</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1445,16 +1445,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>13.5838032245636</v>
+        <v>0.2173737049102783</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7888266833071618</v>
+        <v>0.06310285780002622</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001198101043701172</v>
+        <v>0.0007991313934326172</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0004018583279159754</v>
+        <v>0.0007481331331990399</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1530,16 +1530,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15.22757968902588</v>
+        <v>0.2504850387573242</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2844534070461468</v>
+        <v>0.04796065493436489</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001154518127441406</v>
+        <v>0.0006004810333251953</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0003900444477559096</v>
+        <v>0.000490292387858288</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1615,16 +1615,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>18.09403233528137</v>
+        <v>0.2205959320068359</v>
       </c>
       <c r="C13" t="n">
-        <v>1.313148738994325</v>
+        <v>0.02644930227028353</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0007181644439697265</v>
+        <v>0.0006000995635986328</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0003758239003153118</v>
+        <v>0.0004899793115016344</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1700,16 +1700,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15.1659517288208</v>
+        <v>0.180402135848999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2018846790070143</v>
+        <v>0.05603562478924307</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001011323928833008</v>
+        <v>0.001001644134521484</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0006445297185369832</v>
+        <v>2.83868333170647e-06</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1785,16 +1785,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>16.33713688850403</v>
+        <v>0.1852199077606201</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5336396916817245</v>
+        <v>0.04328528756965435</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001216650009155273</v>
+        <v>0.001199913024902344</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0003972748401397029</v>
+        <v>0.0004004493217322948</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1870,16 +1870,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11.28871340751648</v>
+        <v>0.1757912635803223</v>
       </c>
       <c r="C16" t="n">
-        <v>2.777637682597455</v>
+        <v>0.01712362399768183</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0004003047943115234</v>
+        <v>0.0004000186920166016</v>
       </c>
       <c r="E16" t="n">
-        <v>0.000490284049541093</v>
+        <v>0.0004899208473093903</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
